--- a/Testing/TestingPhase1.xlsx
+++ b/Testing/TestingPhase1.xlsx
@@ -5,17 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nina/Downloads/W2021 TO DO/MSCI 435/msci435-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nina/Downloads/W2021 TO DO/MSCI 435/msci435-project/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A614A3E-0276-8E4D-960B-386FD4923BA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B95FDC-D62C-FD46-B8DD-9B25D364CD45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{7BEF0EDC-0ED5-4544-8A93-343803B300D7}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" activeTab="1" xr2:uid="{7BEF0EDC-0ED5-4544-8A93-343803B300D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model 1 Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Model 1-1" sheetId="8" r:id="rId2"/>
+    <sheet name="Model 1-2" sheetId="2" r:id="rId3"/>
+    <sheet name="Model 1-3" sheetId="3" r:id="rId4"/>
+    <sheet name="Model 1-5" sheetId="4" r:id="rId5"/>
+    <sheet name="Model 1-10" sheetId="5" r:id="rId6"/>
+    <sheet name="Model 1-Iter" sheetId="6" r:id="rId7"/>
+    <sheet name="Model 1-Iter5" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Iteration</t>
   </si>
@@ -91,16 +98,50 @@
   </si>
   <si>
     <t>{Vault};{Floor, Bars, Beam}</t>
+  </si>
+  <si>
+    <t>**1 starting vector</t>
+  </si>
+  <si>
+    <t>**2 starting vectors</t>
+  </si>
+  <si>
+    <t>** 3 starting vectors</t>
+  </si>
+  <si>
+    <t>** 5 starting vectors</t>
+  </si>
+  <si>
+    <t>** 10 starting vectors</t>
+  </si>
+  <si>
+    <t>**10 iterations starting with 5 vectors</t>
+  </si>
+  <si>
+    <t>**10 iterations starting with 1 vector</t>
+  </si>
+  <si>
+    <t>** 1 starting vector</t>
+  </si>
+  <si>
+    <t>% model time</t>
+  </si>
+  <si>
+    <t>% sched time</t>
+  </si>
+  <si>
+    <t>Overhead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +161,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -197,10 +245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -220,7 +269,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -232,7 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -241,9 +290,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF3D464-46CB-7841-A3CD-8CFAD0FF52BA}">
-  <dimension ref="B1:K13"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +792,7 @@
         <v>3.375E-3</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ref="I6:I13" si="2">C6-E6-G6</f>
+        <f t="shared" ref="I6:I12" si="2">C6-E6-G6</f>
         <v>8.9000000000000107E-2</v>
       </c>
       <c r="J6" s="12">
@@ -980,8 +1044,1678 @@
         <f t="shared" si="3"/>
         <v>0.15260000000000012</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <f>AVERAGE(J3:J12)</f>
+        <v>1.9</v>
+      </c>
       <c r="K13" s="10"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986AE7B1-6856-2340-8712-293F888834A9}">
+  <dimension ref="B1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.315</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M3" s="7">
+        <f>K3/I3</f>
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="N3" s="7">
+        <f>L3/I3</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="O3" s="7">
+        <f>H3-K3-L3</f>
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M12" si="0">K4/I4</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N12" si="1">L4/I4</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" ref="O4:O13" si="2">H4-K4-L4</f>
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>8.6666666666666663E-3</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="1"/>
+        <v>5.6666666666666671E-3</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.496</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8</v>
+      </c>
+      <c r="J6" s="14">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3749999999999999E-3</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.69200000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.497</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.45899999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999998E-2</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7142857142857144E-3</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.496</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.46399999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.46699999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1333333333333334E-2</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13" si="3">AVERAGE(D3:D12)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E13" s="4">
+        <f>AVERAGE(E3:E12)</f>
+        <v>2.1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="16">
+        <f>AVERAGE(H3:H12)</f>
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" ref="I13" si="4">AVERAGE(I3:I12)</f>
+        <v>3.8</v>
+      </c>
+      <c r="J13" s="19">
+        <f>AVERAGE(J3:J12)</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="16">
+        <f>AVERAGE(K3:K12)</f>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L13" s="16">
+        <f>AVERAGE(L3:L12)</f>
+        <v>2.07E-2</v>
+      </c>
+      <c r="M13" s="16">
+        <f>AVERAGE(M3:M12)</f>
+        <v>1.0038333333333333E-2</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" ref="M13:N13" si="5">AVERAGE(N3:N12)</f>
+        <v>8.4989285714285722E-3</v>
+      </c>
+      <c r="O13" s="16">
+        <f>AVERAGE(O3:O12)</f>
+        <v>0.49490000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="15">
+        <f>K13/H13</f>
+        <v>7.3661516349263392E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="15">
+        <f>L13/H13</f>
+        <v>3.71900826446281E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24B82B2-6591-0642-87C4-1113BCA0F127}">
+  <dimension ref="B1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.498</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.49639999999999995</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13" si="0">AVERAGE(D3:D12)</f>
+        <v>2.8</v>
+      </c>
+      <c r="E13" s="4">
+        <f>AVERAGE(E3:E12)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375594BE-B815-3144-B1BD-2D5EC88C6CFD}">
+  <dimension ref="B1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.371</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.43669999999999998</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13" si="0">AVERAGE(D3:D12)</f>
+        <v>3.2</v>
+      </c>
+      <c r="E13" s="4">
+        <f>AVERAGE(E3:E12)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14084A5C-CCE7-0F44-987E-5D8D50CFDF2D}">
+  <dimension ref="B1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.252</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.318</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.3604</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13" si="0">AVERAGE(D3:D12)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <f>AVERAGE(E3:E12)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC074D7-05E8-624E-AA82-30B4D3272471}">
+  <dimension ref="B1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.251</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.504</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.39920000000000005</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13" si="0">AVERAGE(D3:D12)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <f>AVERAGE(E3:E12)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CDAF3-9AB0-C54E-9901-A5201321AA1B}">
+  <dimension ref="B1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.874</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.79339999999999988</v>
+      </c>
+      <c r="D13" s="4">
+        <f>AVERAGE(D3:D12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4196C13F-5F4F-A24A-ABD7-39E56B71D024}">
+  <dimension ref="B1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.72620000000000007</v>
+      </c>
+      <c r="D13" s="4">
+        <f>AVERAGE(D3:D12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
